--- a/pc/public/excel_template/wshop/pt.xlsx
+++ b/pc/public/excel_template/wshop/pt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ticket\codegen\src\template\nest\src\[[table]]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\nest\codegen\src\template\pc\public\excel_template\[[mod]]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C15693D-A458-4DD8-8BB4-29725BDD85E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DB4BA-10E2-4503-968E-9581176F6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,107 +30,107 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPt;%&gt;&lt;%=comment.lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.pt_type_ids_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.price%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.original_price%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.unit%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_new_lbl%&gt;&lt;%selectList.is_new = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_new &amp;&amp; selectList.is_new.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_new.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.introduct%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_enabled_lbl%&gt;&lt;%selectList.is_enabled = data.getDict.find((item) =&gt; item[0]?.code === "is_enabled")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_enabled &amp;&amp; selectList.is_enabled.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_enabled.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.order_by%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.detail%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.create_usr_id_lbl%&gt;&lt;%selectList.create_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.create_usr_id &amp;&amp; selectList.create_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.create_time_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.update_usr_id_lbl%&gt;&lt;%selectList.update_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.update_usr_id &amp;&amp; selectList.update_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.update_time_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;%=model.lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.pt_type_ids_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.price%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.original_price%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.unit%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.is_new_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.introduct%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.is_enabled_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.detail%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.create_usr_id_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.create_time ? new Date(model.create_time) : ""%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.update_usr_id_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.update_time ? new Date(model.update_time) : ""%&gt;</t>
+    <t xml:space="preserve">&lt;%initJs: const data = _data_.data; const sheetName = _data_.sheetName; const selectList = { }; const columns = _data_.columns; columns.sort((a,b) =&gt; { if (a.fixed &amp;&amp; !b.fixed) return -1; if (!a.fixed &amp;&amp; b.fixed) return 1; return 0; }); var xSplit = columns.findIndex((column) =&gt; !column.fixed); if (xSplit === -1) { xSplit = 0; } %&gt;&lt;%_freezePane_({ xSplit, ySplit: 1, topLeftCell: _charPlus_(_col,xSplit)+"2" })%&gt;&lt;%_setSheetName_(sheetName)%&gt;&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "pt_type_ids_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "original_price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "unit"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_new_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.is_new = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_new &amp;&amp; selectList.is_new.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_new.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "introduct"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_locked_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_enabled_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.is_enabled = data.getDict.find((item) =&gt; item[0]?.code === "is_enabled")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_enabled &amp;&amp; selectList.is_enabled.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_enabled.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "order_by"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "detail"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.create_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.create_usr_id &amp;&amp; selectList.create_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "create_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.update_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.update_usr_id &amp;&amp; selectList.update_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "pt_type_ids_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "original_price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "unit"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_new_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "introduct"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_locked_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "is_enabled_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "order_by"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "detail"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "create_time"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop] ? new Date(model[prop]) : ""%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "update_time"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop] ? new Date(model[prop]) : ""%&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -166,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,59 +464,59 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/pc/public/excel_template/wshop/pt.xlsx
+++ b/pc/public/excel_template/wshop/pt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\nest\codegen\src\template\pc\public\excel_template\[[mod]]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DB4BA-10E2-4503-968E-9581176F6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D1C45-E0BE-4CCA-BD8D-2AE1098C9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">&lt;%initJs: const data = _data_.data; const sheetName = _data_.sheetName; const selectList = { }; const columns = _data_.columns; columns.sort((a,b) =&gt; { if (a.fixed &amp;&amp; !b.fixed) return -1; if (!a.fixed &amp;&amp; b.fixed) return 1; return 0; }); var xSplit = columns.findIndex((column) =&gt; !column.fixed); if (xSplit === -1) { xSplit = 0; } %&gt;&lt;%_freezePane_({ xSplit, ySplit: 1, topLeftCell: _charPlus_(_col,xSplit)+"2" })%&gt;&lt;%_setSheetName_(sheetName)%&gt;&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+    <t xml:space="preserve">&lt;%initJs: const data = _data_.data; const sheetName = _data_.sheetName; const selectList = { }; const columns = _data_.columns; columns.sort((a,b) =&gt; { if (a.fixed &amp;&amp; !b.fixed) return -1; if (!a.fixed &amp;&amp; b.fixed) return 1; return 0; }); var xSplit = columns.findIndex((column) =&gt; !column.fixed); if (xSplit === -1) { xSplit = 0; } %&gt;&lt;%_freezePane_({ xSplit, ySplit: 1, topLeftCell: _charPlus_(_col,xSplit)+"2" })%&gt;&lt;%_setSheetName_(sheetName)%&gt;&lt;% var prop = "img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "pt_type_ids_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
@@ -63,6 +66,12 @@
     <t xml:space="preserve">&lt;% var prop = "detail"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;% var prop = "detail_top_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "detail_bottom_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
@@ -78,16 +87,19 @@
     <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
+    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;% var prop = "img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "pt_type_ids_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;% var prop = "original_price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop]%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop+"_lbl"]%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "original_price"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop+"_lbl"]%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "unit"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
@@ -111,19 +123,25 @@
     <t xml:space="preserve">&lt;% var prop = "detail"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;% var prop = "detail_top_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "detail_bottom_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "create_time"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop] ? new Date(model[prop]) : ""%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "create_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "update_time"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%~model[prop] ? new Date(model[prop]) : ""%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
 </sst>
 </file>
@@ -175,10 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,6 +216,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD77672-15E9-4508-B18C-106C4A52DE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,6 +535,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15.58203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -515,60 +588,79 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pc/public/excel_template/wshop/pt.xlsx
+++ b/pc/public/excel_template/wshop/pt.xlsx
@@ -87,7 +87,7 @@
     <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;% var prop = "img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
+    <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;% var prop = "img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;&lt;%_setHt_(100)%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
@@ -123,10 +123,10 @@
     <t xml:space="preserve">&lt;% var prop = "detail"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "detail_top_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;% var prop = "detail_bottom_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "detail_top_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;&lt;%_setHt_(100)%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;% var prop = "detail_bottom_img"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%_img_({imgPh:model[prop+"_lbl"]})%&gt;&lt;%_setHt_(100)%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=model[prop]%&gt;</t>

--- a/pc/public/excel_template/wshop/pt.xlsx
+++ b/pc/public/excel_template/wshop/pt.xlsx
@@ -75,13 +75,13 @@
     <t xml:space="preserve">&lt;% var prop = "rem"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.create_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.create_usr_id &amp;&amp; selectList.create_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.create_usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "create_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "create_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;&lt;%selectList.update_usr_id = data.findAllUsr?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.update_usr_id &amp;&amp; selectList.update_usr_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.update_usr_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;% var prop = "update_usr_id_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;% var prop = "update_time_lbl"; var column = columns.find((column) =&gt; column.prop === prop); var idx = columns.indexOf(column); _col = idx !== -1 ? _charPlus_("A", idx) : _col; %&gt;&lt;%_setC_(_col)%&gt;&lt;%=column.label%&gt;&lt;%_cols_({ min: _col, width: column.width, hidden: column.hidden })%&gt;</t>
